--- a/exports/xlsx/terms_definition_1.xlsx
+++ b/exports/xlsx/terms_definition_1.xlsx
@@ -1053,7 +1053,7 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>A quality or Characteristic belonging to an Entity and referenced by an identifier.</t>
+          <t>characteristic belonging to an Entity and referenced by an identifier.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">

--- a/exports/xlsx/terms_definition_1.xlsx
+++ b/exports/xlsx/terms_definition_1.xlsx
@@ -1333,7 +1333,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The masses of living organisms, such as vegetation and animals, including dead but still connected parts such as roots, trunks or branches.</t>
+          <t>masses of living organisms, such as vegetation and animals, including dead but still connected parts such as roots, trunks or branches</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>

--- a/exports/xlsx/terms_definition_1.xlsx
+++ b/exports/xlsx/terms_definition_1.xlsx
@@ -1957,7 +1957,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Data about data, which provides an understanding of the content and utility of the product or collection.</t>
+          <t>Data about data, which provides an understanding of the content and utility of a product or collection</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">

--- a/exports/xlsx/terms_definition_1.xlsx
+++ b/exports/xlsx/terms_definition_1.xlsx
@@ -1396,7 +1396,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>- Wikipedia</t>
+          <t>- [Wikipedia](https://en.wikipedia.org/wiki/Process)</t>
         </is>
       </c>
     </row>

--- a/exports/xlsx/terms_definition_1.xlsx
+++ b/exports/xlsx/terms_definition_1.xlsx
@@ -1809,8 +1809,8 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>- The subset may be spatial, temporal, spectral, or in any other dimension or Trait.
-- The subset is contiguous, i.e. it does not consist of more than one discontinuous interval along any dimension.
+          <t>- A sample may be spatial, temporal, spectral, or in any other dimension or Trait.
+- Each sample is contiguous, i.e. it does not consist of more than one discontinuous geometry in any dimension.
 - The Process of obtaining a sample is called sampling.</t>
         </is>
       </c>
